--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slit1-Robo2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slit1-Robo2.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Slit1</t>
+  </si>
+  <si>
+    <t>Robo2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Slit1</t>
-  </si>
-  <si>
-    <t>Robo2</t>
   </si>
 </sst>
 </file>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2559396666666666</v>
+        <v>0.5335346666666666</v>
       </c>
       <c r="H2">
-        <v>0.7678189999999999</v>
+        <v>1.600604</v>
       </c>
       <c r="I2">
-        <v>0.1699926739796983</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="J2">
-        <v>0.1699926739796983</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.054425</v>
+        <v>0.9052683333333333</v>
       </c>
       <c r="N2">
-        <v>3.163275000000001</v>
+        <v>2.715805</v>
       </c>
       <c r="O2">
-        <v>0.5590543736060203</v>
+        <v>0.5200140314301739</v>
       </c>
       <c r="P2">
-        <v>0.5590543736060203</v>
+        <v>0.5200140314301738</v>
       </c>
       <c r="Q2">
-        <v>0.269869183025</v>
+        <v>0.4829920384688888</v>
       </c>
       <c r="R2">
-        <v>2.428822647225</v>
+        <v>4.346928346219999</v>
       </c>
       <c r="S2">
-        <v>0.09503514786933268</v>
+        <v>0.1649701704616786</v>
       </c>
       <c r="T2">
-        <v>0.09503514786933268</v>
+        <v>0.1649701704616786</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2559396666666666</v>
+        <v>0.5335346666666666</v>
       </c>
       <c r="H3">
-        <v>0.7678189999999999</v>
+        <v>1.600604</v>
       </c>
       <c r="I3">
-        <v>0.1699926739796983</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="J3">
-        <v>0.1699926739796983</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.326999</v>
       </c>
       <c r="O3">
-        <v>0.4112569941996302</v>
+        <v>0.4455666482402024</v>
       </c>
       <c r="P3">
-        <v>0.4112569941996302</v>
+        <v>0.4455666482402024</v>
       </c>
       <c r="Q3">
-        <v>0.1985237827978888</v>
+        <v>0.4138448785995554</v>
       </c>
       <c r="R3">
-        <v>1.786714045181</v>
+        <v>3.724603907395999</v>
       </c>
       <c r="S3">
-        <v>0.06991067613684843</v>
+        <v>0.1413523510318876</v>
       </c>
       <c r="T3">
-        <v>0.06991067613684843</v>
+        <v>0.1413523510318876</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,75 +646,75 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2559396666666666</v>
+        <v>0.5335346666666666</v>
       </c>
       <c r="H4">
-        <v>0.7678189999999999</v>
+        <v>1.600604</v>
       </c>
       <c r="I4">
-        <v>0.1699926739796983</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="J4">
-        <v>0.1699926739796983</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.05599533333333334</v>
+        <v>0.04422333333333334</v>
       </c>
       <c r="N4">
-        <v>0.167986</v>
+        <v>0.13267</v>
       </c>
       <c r="O4">
-        <v>0.0296886321943495</v>
+        <v>0.02540324564902162</v>
       </c>
       <c r="P4">
-        <v>0.0296886321943495</v>
+        <v>0.02540324564902162</v>
       </c>
       <c r="Q4">
-        <v>0.01433142694822222</v>
+        <v>0.02359468140888889</v>
       </c>
       <c r="R4">
-        <v>0.128982842534</v>
+        <v>0.21235213268</v>
       </c>
       <c r="S4">
-        <v>0.005046849973517231</v>
+        <v>0.008058970550223929</v>
       </c>
       <c r="T4">
-        <v>0.00504684997351723</v>
+        <v>0.008058970550223928</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,40 +729,40 @@
         <v>1.600604</v>
       </c>
       <c r="I5">
-        <v>0.3543686128405277</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="J5">
-        <v>0.3543686128405276</v>
+        <v>0.3172417675114798</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.054425</v>
+        <v>0.01569566666666667</v>
       </c>
       <c r="N5">
-        <v>3.163275000000001</v>
+        <v>0.047087</v>
       </c>
       <c r="O5">
-        <v>0.5590543736060203</v>
+        <v>0.009016074680602103</v>
       </c>
       <c r="P5">
-        <v>0.5590543736060203</v>
+        <v>0.009016074680602101</v>
       </c>
       <c r="Q5">
-        <v>0.5625722909</v>
+        <v>0.00837418228311111</v>
       </c>
       <c r="R5">
-        <v>5.063150618100001</v>
+        <v>0.07536764054799999</v>
       </c>
       <c r="S5">
-        <v>0.1981113228771955</v>
+        <v>0.002860275467689712</v>
       </c>
       <c r="T5">
-        <v>0.1981113228771955</v>
+        <v>0.002860275467689711</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,14 +770,14 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5335346666666666</v>
+        <v>0.4111333333333334</v>
       </c>
       <c r="H6">
-        <v>1.600604</v>
+        <v>1.2334</v>
       </c>
       <c r="I6">
-        <v>0.3543686128405277</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="J6">
-        <v>0.3543686128405276</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7756663333333332</v>
+        <v>0.9052683333333333</v>
       </c>
       <c r="N6">
-        <v>2.326999</v>
+        <v>2.715805</v>
       </c>
       <c r="O6">
-        <v>0.4112569941996302</v>
+        <v>0.5200140314301739</v>
       </c>
       <c r="P6">
-        <v>0.4112569941996302</v>
+        <v>0.5200140314301738</v>
       </c>
       <c r="Q6">
-        <v>0.4138448785995554</v>
+        <v>0.3721859874444445</v>
       </c>
       <c r="R6">
-        <v>3.724603907395999</v>
+        <v>3.349673887</v>
       </c>
       <c r="S6">
-        <v>0.1457365705554879</v>
+        <v>0.1271233910745159</v>
       </c>
       <c r="T6">
-        <v>0.1457365705554879</v>
+        <v>0.1271233910745158</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5335346666666666</v>
+        <v>0.4111333333333334</v>
       </c>
       <c r="H7">
-        <v>1.600604</v>
+        <v>1.2334</v>
       </c>
       <c r="I7">
-        <v>0.3543686128405277</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="J7">
-        <v>0.3543686128405276</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,42 +865,42 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.05599533333333334</v>
+        <v>0.7756663333333332</v>
       </c>
       <c r="N7">
-        <v>0.167986</v>
+        <v>2.326999</v>
       </c>
       <c r="O7">
-        <v>0.0296886321943495</v>
+        <v>0.4455666482402024</v>
       </c>
       <c r="P7">
-        <v>0.0296886321943495</v>
+        <v>0.4455666482402024</v>
       </c>
       <c r="Q7">
-        <v>0.02987545150488889</v>
+        <v>0.3189022851777777</v>
       </c>
       <c r="R7">
-        <v>0.268879063544</v>
+        <v>2.8701205666</v>
       </c>
       <c r="S7">
-        <v>0.01052071940784426</v>
+        <v>0.1089238748389547</v>
       </c>
       <c r="T7">
-        <v>0.01052071940784426</v>
+        <v>0.1089238748389546</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4368670000000001</v>
+        <v>0.4111333333333334</v>
       </c>
       <c r="H8">
-        <v>1.310601</v>
+        <v>1.2334</v>
       </c>
       <c r="I8">
-        <v>0.2901628749880723</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="J8">
-        <v>0.2901628749880723</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,43 +927,43 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.054425</v>
+        <v>0.04422333333333334</v>
       </c>
       <c r="N8">
-        <v>3.163275000000001</v>
+        <v>0.13267</v>
       </c>
       <c r="O8">
-        <v>0.5590543736060203</v>
+        <v>0.02540324564902162</v>
       </c>
       <c r="P8">
-        <v>0.5590543736060203</v>
+        <v>0.02540324564902162</v>
       </c>
       <c r="Q8">
-        <v>0.4606434864750001</v>
+        <v>0.01818168644444445</v>
       </c>
       <c r="R8">
-        <v>4.145791378275001</v>
+        <v>0.163635178</v>
       </c>
       <c r="S8">
-        <v>0.1622168243201787</v>
+        <v>0.00621011460464062</v>
       </c>
       <c r="T8">
-        <v>0.1622168243201787</v>
+        <v>0.006210114604640619</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4368670000000001</v>
+        <v>0.4111333333333334</v>
       </c>
       <c r="H9">
-        <v>1.310601</v>
+        <v>1.2334</v>
       </c>
       <c r="I9">
-        <v>0.2901628749880723</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="J9">
-        <v>0.2901628749880723</v>
+        <v>0.2444614633280057</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.7756663333333332</v>
+        <v>0.01569566666666667</v>
       </c>
       <c r="N9">
-        <v>2.326999</v>
+        <v>0.047087</v>
       </c>
       <c r="O9">
-        <v>0.4112569941996302</v>
+        <v>0.009016074680602103</v>
       </c>
       <c r="P9">
-        <v>0.4112569941996302</v>
+        <v>0.009016074680602101</v>
       </c>
       <c r="Q9">
-        <v>0.3388630240443333</v>
+        <v>0.006453011755555556</v>
       </c>
       <c r="R9">
-        <v>3.049767216399</v>
+        <v>0.0580771058</v>
       </c>
       <c r="S9">
-        <v>0.1193315117959177</v>
+        <v>0.002204082809894572</v>
       </c>
       <c r="T9">
-        <v>0.1193315117959177</v>
+        <v>0.002204082809894571</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,14 +1018,14 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4368670000000001</v>
+        <v>0.737124</v>
       </c>
       <c r="H10">
-        <v>1.310601</v>
+        <v>2.211372</v>
       </c>
       <c r="I10">
-        <v>0.2901628749880723</v>
+        <v>0.4382967691605145</v>
       </c>
       <c r="J10">
-        <v>0.2901628749880723</v>
+        <v>0.4382967691605145</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,214 +1051,214 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.05599533333333334</v>
+        <v>0.9052683333333333</v>
       </c>
       <c r="N10">
-        <v>0.167986</v>
+        <v>2.715805</v>
       </c>
       <c r="O10">
-        <v>0.0296886321943495</v>
+        <v>0.5200140314301739</v>
       </c>
       <c r="P10">
-        <v>0.0296886321943495</v>
+        <v>0.5200140314301738</v>
       </c>
       <c r="Q10">
-        <v>0.02446251328733334</v>
+        <v>0.66729501494</v>
       </c>
       <c r="R10">
-        <v>0.2201626195860001</v>
+        <v>6.00565513446</v>
       </c>
       <c r="S10">
-        <v>0.008614538871975894</v>
+        <v>0.2279204698939795</v>
       </c>
       <c r="T10">
-        <v>0.008614538871975892</v>
+        <v>0.2279204698939794</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.279251</v>
+        <v>0.737124</v>
       </c>
       <c r="H11">
-        <v>0.837753</v>
+        <v>2.211372</v>
       </c>
       <c r="I11">
-        <v>0.1854758381917017</v>
+        <v>0.4382967691605145</v>
       </c>
       <c r="J11">
-        <v>0.1854758381917017</v>
+        <v>0.4382967691605145</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>1.054425</v>
+        <v>0.7756663333333332</v>
       </c>
       <c r="N11">
-        <v>3.163275000000001</v>
+        <v>2.326999</v>
       </c>
       <c r="O11">
-        <v>0.5590543736060203</v>
+        <v>0.4455666482402024</v>
       </c>
       <c r="P11">
-        <v>0.5590543736060203</v>
+        <v>0.4455666482402024</v>
       </c>
       <c r="Q11">
-        <v>0.294449235675</v>
+        <v>0.5717622702919999</v>
       </c>
       <c r="R11">
-        <v>2.650043121075</v>
+        <v>5.145860432627999</v>
       </c>
       <c r="S11">
-        <v>0.1036910785393134</v>
+        <v>0.1952904223693602</v>
       </c>
       <c r="T11">
-        <v>0.1036910785393134</v>
+        <v>0.1952904223693601</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.737124</v>
+      </c>
+      <c r="H12">
+        <v>2.211372</v>
+      </c>
+      <c r="I12">
+        <v>0.4382967691605145</v>
+      </c>
+      <c r="J12">
+        <v>0.4382967691605145</v>
+      </c>
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="L12">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G12">
-        <v>0.279251</v>
-      </c>
-      <c r="H12">
-        <v>0.837753</v>
-      </c>
-      <c r="I12">
-        <v>0.1854758381917017</v>
-      </c>
-      <c r="J12">
-        <v>0.1854758381917017</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
       <c r="M12">
-        <v>0.7756663333333332</v>
+        <v>0.04422333333333334</v>
       </c>
       <c r="N12">
-        <v>2.326999</v>
+        <v>0.13267</v>
       </c>
       <c r="O12">
-        <v>0.4112569941996302</v>
+        <v>0.02540324564902162</v>
       </c>
       <c r="P12">
-        <v>0.4112569941996302</v>
+        <v>0.02540324564902162</v>
       </c>
       <c r="Q12">
-        <v>0.2166055992496666</v>
+        <v>0.03259808036</v>
       </c>
       <c r="R12">
-        <v>1.949450393247</v>
+        <v>0.29338272324</v>
       </c>
       <c r="S12">
-        <v>0.07627823571137624</v>
+        <v>0.01113416049415708</v>
       </c>
       <c r="T12">
-        <v>0.07627823571137624</v>
+        <v>0.01113416049415707</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.279251</v>
+        <v>0.737124</v>
       </c>
       <c r="H13">
-        <v>0.837753</v>
+        <v>2.211372</v>
       </c>
       <c r="I13">
-        <v>0.1854758381917017</v>
+        <v>0.4382967691605145</v>
       </c>
       <c r="J13">
-        <v>0.1854758381917017</v>
+        <v>0.4382967691605145</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.05599533333333334</v>
+        <v>0.01569566666666667</v>
       </c>
       <c r="N13">
-        <v>0.167986</v>
+        <v>0.047087</v>
       </c>
       <c r="O13">
-        <v>0.0296886321943495</v>
+        <v>0.009016074680602103</v>
       </c>
       <c r="P13">
-        <v>0.0296886321943495</v>
+        <v>0.009016074680602101</v>
       </c>
       <c r="Q13">
-        <v>0.01563675282866667</v>
+        <v>0.011569652596</v>
       </c>
       <c r="R13">
-        <v>0.140730775458</v>
+        <v>0.104126873364</v>
       </c>
       <c r="S13">
-        <v>0.005506523941012116</v>
+        <v>0.00395171640301782</v>
       </c>
       <c r="T13">
-        <v>0.005506523941012114</v>
+        <v>0.003951716403017818</v>
       </c>
     </row>
   </sheetData>
